--- a/data/macro/USA/Logistic manager index.xlsx
+++ b/data/macro/USA/Logistic manager index.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9AB8A9-3448-482C-A42D-C699905D9C88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEBC480-7078-4791-8DDB-648370E83E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMI" sheetId="1" r:id="rId1"/>
     <sheet name="info" sheetId="2" r:id="rId2"/>
+    <sheet name="fig" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,35 +30,35 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
   <si>
     <t>Inventory Costs</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Transportation Prices</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Warehouse Prices</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LMI Futures</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LMI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Report Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Base Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://tradingeconomics.com/united-states/lmi-logistics-managers-index-current</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>source</t>
@@ -89,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -117,33 +118,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -161,6 +139,25 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,48 +179,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -241,6 +239,4383 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LMI!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> LMI </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LMI!$A$2:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LMI!$E$2:$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58.87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61.71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.03</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>52.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>54.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42A4-4B33-A123-1B2BF141B957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LMI!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> LMI Futures </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LMI!$A$2:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LMI!$F$2:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="24">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42A4-4B33-A123-1B2BF141B957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LMI!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Warehouse Prices </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LMI!$A$2:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LMI!$G$2:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.91</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>68.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>66.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42A4-4B33-A123-1B2BF141B957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LMI!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Transportation Prices </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LMI!$A$2:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LMI!$H$2:$H$114</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48.98</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>65.52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.07</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72.64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>90.7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>62.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>66.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42A4-4B33-A123-1B2BF141B957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LMI!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Inventory Costs </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LMI!$A$2:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LMI!$I$2:$I$114</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>65.84</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>80.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>62.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-42A4-4B33-A123-1B2BF141B957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="174805823"/>
+        <c:axId val="2086269119"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="174805823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="46387"/>
+          <c:min val="42736"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086269119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2086269119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174805823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981F5DA4-80EE-4E08-8383-A9FD54D261C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,62 +4884,61 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="R90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="12"/>
-    <col min="6" max="6" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>42614</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>42647</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="12">
@@ -581,14 +4955,14 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>42644</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>42675</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="12">
@@ -605,14 +4979,14 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>42675</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>42710</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="12">
@@ -629,14 +5003,14 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>42705</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>42738</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="12">
@@ -653,14 +5027,14 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>42736</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>42773</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="12">
@@ -677,14 +5051,14 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>42767</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>42801</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="12">
@@ -701,14 +5075,14 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>42795</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>42829</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="12">
@@ -725,14 +5099,14 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>42826</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>42857</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="12">
@@ -749,14 +5123,14 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>42856</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>42892</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="12">
@@ -773,14 +5147,14 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>42887</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>42920</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="12">
@@ -797,14 +5171,14 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>42917</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <v>42948</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="12">
@@ -821,14 +5195,14 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>42948</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>42983</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="12">
@@ -845,14 +5219,14 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>42979</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="10">
         <v>43011</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="12">
@@ -869,14 +5243,14 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>43009</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="10">
         <v>43046</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="12">
@@ -893,14 +5267,14 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>43040</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>43074</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="12">
@@ -917,14 +5291,14 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>43070</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>43102</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="12">
@@ -941,14 +5315,14 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>43101</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>43137</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12">
@@ -965,14 +5339,14 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>43132</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="10">
         <v>43165</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="12">
@@ -989,14 +5363,14 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>43160</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="10">
         <v>43193</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="12">
@@ -1013,14 +5387,14 @@
         <v>81.34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>43191</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="10">
         <v>43221</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="12">
@@ -1037,14 +5411,14 @@
         <v>81.34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>43221</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="10">
         <v>43256</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="12">
@@ -1061,14 +5435,14 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>43252</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="10">
         <v>43284</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="12">
@@ -1085,14 +5459,14 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>43282</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>43319</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="12">
@@ -1109,14 +5483,14 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>43313</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="10">
         <v>43347</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="12">
@@ -1133,14 +5507,14 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>43344</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="10">
         <v>43375</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="12">
@@ -1159,14 +5533,14 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>43374</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="10">
         <v>43410</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="12">
@@ -1185,14 +5559,14 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>43405</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="10">
         <v>43438</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="12">
@@ -1211,14 +5585,14 @@
         <v>73.53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>43435</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="10">
         <v>43467</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="12">
@@ -1237,14 +5611,14 @@
         <v>72.73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>43466</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="10">
         <v>43501</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="12">
@@ -1263,14 +5637,14 @@
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>43497</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="10">
         <v>43529</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="12">
@@ -1289,14 +5663,14 @@
         <v>74.510000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>43525</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="10">
         <v>43557</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="12">
@@ -1315,14 +5689,14 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>43556</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="10">
         <v>43592</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="12">
@@ -1341,14 +5715,14 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
         <v>43586</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="10">
         <v>43620</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="12">
@@ -1367,14 +5741,14 @@
         <v>72.55</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
         <v>43617</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="10">
         <v>43648</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="12">
@@ -1393,14 +5767,14 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>43647</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="10">
         <v>43683</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="12">
@@ -1419,14 +5793,14 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>43678</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="10">
         <v>43711</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="12">
@@ -1445,14 +5819,14 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
         <v>43709</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="10">
         <v>43739</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="12">
@@ -1471,14 +5845,14 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
         <v>43739</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="10">
         <v>43774</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="12">
@@ -1497,14 +5871,14 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
         <v>43770</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="10">
         <v>43802</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="12">
@@ -1523,14 +5897,14 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
         <v>43800</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="10">
         <v>43837</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="12">
@@ -1549,14 +5923,14 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
         <v>43831</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="10">
         <v>43865</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="12">
@@ -1575,14 +5949,14 @@
         <v>66.13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
         <v>43862</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="10">
         <v>43893</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="12">
@@ -1601,14 +5975,14 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
         <v>43891</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="10">
         <v>43928</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="12">
@@ -1627,14 +6001,14 @@
         <v>66.489999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>43922</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="10">
         <v>43956</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="12">
@@ -1653,14 +6027,14 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>43952</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="10">
         <v>43984</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="12">
@@ -1679,14 +6053,14 @@
         <v>66.02</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>43983</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="10">
         <v>44019</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="12">
@@ -1705,14 +6079,14 @@
         <v>63.46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>44013</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="10">
         <v>44047</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="12">
@@ -1731,14 +6105,14 @@
         <v>69.12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
         <v>44044</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="10">
         <v>44075</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="12">
@@ -1757,14 +6131,14 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
         <v>44075</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="10">
         <v>44110</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="12">
@@ -1783,14 +6157,14 @@
         <v>65.84</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
         <v>44105</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="10">
         <v>44138</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="12">
@@ -1809,14 +6183,14 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
         <v>44136</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="10">
         <v>44166</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="12">
@@ -1835,14 +6209,14 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
         <v>44166</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="10">
         <v>44201</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="12">
@@ -1861,14 +6235,14 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
         <v>44197</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="10">
         <v>44229</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="12">
@@ -1887,14 +6261,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
         <v>44228</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="10">
         <v>44257</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="12">
@@ -1913,14 +6287,14 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
         <v>44256</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="10">
         <v>44292</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="12">
@@ -1939,14 +6313,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
         <v>44287</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="10">
         <v>44320</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="12">
@@ -1965,14 +6339,14 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
         <v>44317</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="10">
         <v>44348</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="12">
@@ -1991,14 +6365,14 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
         <v>44348</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="10">
         <v>44383</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="12">
@@ -2017,14 +6391,14 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
         <v>44378</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="10">
         <v>44411</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="12">
@@ -2043,14 +6417,14 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
         <v>44409</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="10">
         <v>44446</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="12">
@@ -2069,14 +6443,14 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
         <v>44440</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="10">
         <v>44474</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="12">
@@ -2095,14 +6469,14 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
         <v>44470</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="10">
         <v>44502</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="12">
@@ -2121,14 +6495,14 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
         <v>44501</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="10">
         <v>44537</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="12">
@@ -2147,14 +6521,14 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
         <v>44531</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="10">
         <v>44565</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="12">
@@ -2173,14 +6547,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
         <v>44562</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="10">
         <v>44593</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="12">
@@ -2199,14 +6573,14 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
         <v>44593</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="10">
         <v>44621</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="12">
@@ -2225,14 +6599,14 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
         <v>44621</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="10">
         <v>44656</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="12">
@@ -2251,14 +6625,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
         <v>44652</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="10">
         <v>44684</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="12">
@@ -2277,14 +6651,14 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
         <v>44682</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="10">
         <v>44719</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="12">
@@ -2303,14 +6677,14 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
         <v>44713</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="10">
         <v>44747</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="12">
@@ -2329,14 +6703,14 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
         <v>44743</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="10">
         <v>44775</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="12">
@@ -2355,14 +6729,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
         <v>44774</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="10">
         <v>44810</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="12">
@@ -2381,14 +6755,14 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
         <v>44805</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="10">
         <v>44838</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="12">
@@ -2407,14 +6781,14 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
         <v>44835</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="10">
         <v>44866</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="12">
@@ -2433,14 +6807,14 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
         <v>44866</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="10">
         <v>44901</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="12">
@@ -2459,14 +6833,14 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
         <v>44896</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="10">
         <v>44929</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="12">
@@ -2485,14 +6859,14 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
         <v>44927</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="10">
         <v>44964</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="12">
@@ -2511,14 +6885,14 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
         <v>44958</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="10">
         <v>44992</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="12">
@@ -2537,14 +6911,14 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
         <v>44986</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="10">
         <v>45020</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="12">
@@ -2563,14 +6937,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
         <v>45017</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="10">
         <v>45048</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="12">
@@ -2589,14 +6963,14 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
         <v>45047</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="10">
         <v>45083</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="12">
@@ -2615,14 +6989,14 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
         <v>45078</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="10">
         <v>45111</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="12">
@@ -2641,14 +7015,14 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
         <v>45108</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="10">
         <v>45139</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="12">
@@ -2667,14 +7041,14 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
         <v>45139</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="10">
         <v>45174</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="12">
@@ -2693,14 +7067,14 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
         <v>45170</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="10">
         <v>45202</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="12">
@@ -2719,14 +7093,14 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
         <v>45200</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="10">
         <v>45237</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="12">
@@ -2745,14 +7119,14 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
         <v>45231</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="10">
         <v>45265</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="12">
@@ -2771,14 +7145,14 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
         <v>45261</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="10">
         <v>45293</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="12">
@@ -2797,14 +7171,14 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
         <v>45292</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="10">
         <v>45328</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="12">
@@ -2823,14 +7197,14 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
         <v>45323</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="10">
         <v>45356</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="12">
@@ -2849,14 +7223,14 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
         <v>45352</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="10">
         <v>45384</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="12">
@@ -2875,14 +7249,14 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
         <v>45383</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="10">
         <v>45419</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="12">
@@ -2901,14 +7275,14 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
         <v>45413</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="10">
         <v>45447</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="12">
@@ -2927,14 +7301,14 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
         <v>45444</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="10">
         <v>45475</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="12">
@@ -2953,14 +7327,14 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
         <v>45474</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="10">
         <v>45510</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="12">
@@ -2979,14 +7353,14 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="10">
         <v>45505</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="10">
         <v>45538</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="12">
@@ -3005,14 +7379,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
         <v>45536</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="10">
         <v>45566</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="12">
@@ -3031,14 +7408,17 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="10">
         <v>45566</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="10">
         <v>45601</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="C99" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="12">
@@ -3057,14 +7437,17 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
         <v>45597</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="10">
         <v>45629</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="12">
@@ -3083,17 +7466,17 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="10">
         <v>45627</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="10">
         <v>45664</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="12">
@@ -3112,17 +7495,17 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="10">
         <v>45658</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="10">
         <v>45692</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="11">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="12">
@@ -3141,17 +7524,17 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="10">
         <v>45689</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="10">
         <v>45720</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="12">
@@ -3170,17 +7553,17 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="10">
         <v>45717</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="10">
         <v>45749</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="12">
@@ -3199,17 +7582,17 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="10">
         <v>45748</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="10">
         <v>45783</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="11">
         <v>0.40625</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E105" s="12">
@@ -3228,17 +7611,17 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="10">
         <v>45778</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="10">
         <v>45811</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="12">
@@ -3257,17 +7640,17 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="10">
         <v>45809</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="10">
         <v>45839</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="11">
         <v>0.4375</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="12">
@@ -3286,17 +7669,17 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="10">
         <v>45839</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="10">
         <v>45874</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="12">
@@ -3315,17 +7698,17 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="10">
         <v>45870</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="10">
         <v>45902</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="12">
@@ -3344,17 +7727,17 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="10">
         <v>45901</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="10">
         <v>45937</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="11">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E110" s="12">
@@ -3373,17 +7756,17 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="10">
         <v>45931</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="10">
         <v>45965</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="11">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E111" s="12">
@@ -3402,17 +7785,17 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="10">
         <v>45962</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="10">
         <v>45993</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="12">
@@ -3431,17 +7814,17 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="10">
         <v>45992</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="10">
         <v>45663</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="12">
@@ -3460,17 +7843,17 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="10">
         <v>46023</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="10">
         <v>45691</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3485,8 +7868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E55565-0C4A-423B-A75C-9DC33F6F8AE5}">
   <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3495,10 +7878,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
@@ -3511,7 +7894,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -3525,4 +7908,23 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A53279-3D0D-4247-AAE5-068BE8617509}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/macro/USA/Logistic manager index.xlsx
+++ b/data/macro/USA/Logistic manager index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/macro/USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEBC480-7078-4791-8DDB-648370E83E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FC860-D069-274A-B4B6-FF269AFCB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28500" yWindow="1020" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMI" sheetId="1" r:id="rId1"/>
@@ -90,29 +90,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -127,7 +127,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +135,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -179,7 +179,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,40 +193,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +244,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -977,6 +977,9 @@
                 <c:pt idx="111">
                   <c:v>54.2</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>59.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1631,6 +1634,9 @@
                 <c:pt idx="111">
                   <c:v>65.3</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>65.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2357,6 +2363,9 @@
                 <c:pt idx="111">
                   <c:v>66.2</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>64.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3083,6 +3092,9 @@
                 <c:pt idx="111">
                   <c:v>66.7</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3808,6 +3820,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>71.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,6 +3997,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3989,7 +4005,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4881,28 +4896,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="R90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
+      <selection pane="bottomRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="10">
         <v>42614</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="10">
         <v>42644</v>
       </c>
@@ -4979,7 +4994,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="10">
         <v>42675</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="10">
         <v>42705</v>
       </c>
@@ -5027,7 +5042,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -5051,7 +5066,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="10">
         <v>42767</v>
       </c>
@@ -5075,7 +5090,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="10">
         <v>42795</v>
       </c>
@@ -5099,7 +5114,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="10">
         <v>42826</v>
       </c>
@@ -5123,7 +5138,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="10">
         <v>42856</v>
       </c>
@@ -5147,7 +5162,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="10">
         <v>42887</v>
       </c>
@@ -5171,7 +5186,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="10">
         <v>42917</v>
       </c>
@@ -5195,7 +5210,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="10">
         <v>42948</v>
       </c>
@@ -5219,7 +5234,7 @@
         <v>70.16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="10">
         <v>42979</v>
       </c>
@@ -5243,7 +5258,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="10">
         <v>43009</v>
       </c>
@@ -5267,7 +5282,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="10">
         <v>43040</v>
       </c>
@@ -5291,7 +5306,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="10">
         <v>43070</v>
       </c>
@@ -5315,7 +5330,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="10">
         <v>43101</v>
       </c>
@@ -5339,7 +5354,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="10">
         <v>43132</v>
       </c>
@@ -5363,7 +5378,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="10">
         <v>43160</v>
       </c>
@@ -5387,7 +5402,7 @@
         <v>81.34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="10">
         <v>43191</v>
       </c>
@@ -5411,7 +5426,7 @@
         <v>81.34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="10">
         <v>43221</v>
       </c>
@@ -5435,7 +5450,7 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="10">
         <v>43252</v>
       </c>
@@ -5459,7 +5474,7 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="10">
         <v>43282</v>
       </c>
@@ -5483,7 +5498,7 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="10">
         <v>43313</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="10">
         <v>43344</v>
       </c>
@@ -5533,7 +5548,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="10">
         <v>43374</v>
       </c>
@@ -5559,7 +5574,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="10">
         <v>43405</v>
       </c>
@@ -5585,7 +5600,7 @@
         <v>73.53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="10">
         <v>43435</v>
       </c>
@@ -5611,7 +5626,7 @@
         <v>72.73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="10">
         <v>43466</v>
       </c>
@@ -5637,7 +5652,7 @@
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="10">
         <v>43497</v>
       </c>
@@ -5663,7 +5678,7 @@
         <v>74.510000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="10">
         <v>43525</v>
       </c>
@@ -5689,7 +5704,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="10">
         <v>43556</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="10">
         <v>43586</v>
       </c>
@@ -5741,7 +5756,7 @@
         <v>72.55</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="10">
         <v>43617</v>
       </c>
@@ -5767,7 +5782,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="10">
         <v>43647</v>
       </c>
@@ -5793,7 +5808,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="10">
         <v>43678</v>
       </c>
@@ -5819,7 +5834,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="10">
         <v>43709</v>
       </c>
@@ -5845,7 +5860,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="10">
         <v>43739</v>
       </c>
@@ -5871,7 +5886,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="10">
         <v>43770</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="10">
         <v>43800</v>
       </c>
@@ -5923,7 +5938,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="10">
         <v>43831</v>
       </c>
@@ -5949,7 +5964,7 @@
         <v>66.13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="10">
         <v>43862</v>
       </c>
@@ -5975,7 +5990,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="10">
         <v>43891</v>
       </c>
@@ -6001,7 +6016,7 @@
         <v>66.489999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="10">
         <v>43922</v>
       </c>
@@ -6027,7 +6042,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="10">
         <v>43952</v>
       </c>
@@ -6053,7 +6068,7 @@
         <v>66.02</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="10">
         <v>43983</v>
       </c>
@@ -6079,7 +6094,7 @@
         <v>63.46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="10">
         <v>44013</v>
       </c>
@@ -6105,7 +6120,7 @@
         <v>69.12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="10">
         <v>44044</v>
       </c>
@@ -6131,7 +6146,7 @@
         <v>64.739999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="10">
         <v>44075</v>
       </c>
@@ -6157,7 +6172,7 @@
         <v>65.84</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="10">
         <v>44105</v>
       </c>
@@ -6183,7 +6198,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="10">
         <v>44136</v>
       </c>
@@ -6209,7 +6224,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="10">
         <v>44166</v>
       </c>
@@ -6235,7 +6250,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="10">
         <v>44197</v>
       </c>
@@ -6261,7 +6276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="10">
         <v>44228</v>
       </c>
@@ -6287,7 +6302,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="10">
         <v>44256</v>
       </c>
@@ -6313,7 +6328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="10">
         <v>44287</v>
       </c>
@@ -6339,7 +6354,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="10">
         <v>44317</v>
       </c>
@@ -6365,7 +6380,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="10">
         <v>44348</v>
       </c>
@@ -6391,7 +6406,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="10">
         <v>44378</v>
       </c>
@@ -6417,7 +6432,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="10">
         <v>44409</v>
       </c>
@@ -6443,7 +6458,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="10">
         <v>44440</v>
       </c>
@@ -6469,7 +6484,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="10">
         <v>44470</v>
       </c>
@@ -6495,7 +6510,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="10">
         <v>44501</v>
       </c>
@@ -6521,7 +6536,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="10">
         <v>44531</v>
       </c>
@@ -6547,7 +6562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="10">
         <v>44562</v>
       </c>
@@ -6573,7 +6588,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="10">
         <v>44593</v>
       </c>
@@ -6599,7 +6614,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="10">
         <v>44621</v>
       </c>
@@ -6625,7 +6640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="10">
         <v>44652</v>
       </c>
@@ -6651,7 +6666,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="10">
         <v>44682</v>
       </c>
@@ -6677,7 +6692,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="10">
         <v>44713</v>
       </c>
@@ -6703,7 +6718,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="10">
         <v>44743</v>
       </c>
@@ -6729,7 +6744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="10">
         <v>44774</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="10">
         <v>44805</v>
       </c>
@@ -6781,7 +6796,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="10">
         <v>44835</v>
       </c>
@@ -6807,7 +6822,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="10">
         <v>44866</v>
       </c>
@@ -6833,7 +6848,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="10">
         <v>44896</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="10">
         <v>44927</v>
       </c>
@@ -6885,7 +6900,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="10">
         <v>44958</v>
       </c>
@@ -6911,7 +6926,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="10">
         <v>44986</v>
       </c>
@@ -6937,7 +6952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="10">
         <v>45017</v>
       </c>
@@ -6963,7 +6978,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="10">
         <v>45047</v>
       </c>
@@ -6989,7 +7004,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="10">
         <v>45078</v>
       </c>
@@ -7015,7 +7030,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="10">
         <v>45108</v>
       </c>
@@ -7041,7 +7056,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="10">
         <v>45139</v>
       </c>
@@ -7067,7 +7082,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="10">
         <v>45170</v>
       </c>
@@ -7093,7 +7108,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="10">
         <v>45200</v>
       </c>
@@ -7119,7 +7134,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="10">
         <v>45231</v>
       </c>
@@ -7145,7 +7160,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="10">
         <v>45261</v>
       </c>
@@ -7171,7 +7186,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="10">
         <v>45292</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="10">
         <v>45323</v>
       </c>
@@ -7223,7 +7238,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="10">
         <v>45352</v>
       </c>
@@ -7249,7 +7264,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="10">
         <v>45383</v>
       </c>
@@ -7275,7 +7290,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="10">
         <v>45413</v>
       </c>
@@ -7301,7 +7316,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="10">
         <v>45444</v>
       </c>
@@ -7327,7 +7342,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="10">
         <v>45474</v>
       </c>
@@ -7353,7 +7368,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="10">
         <v>45505</v>
       </c>
@@ -7379,7 +7394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="10">
         <v>45536</v>
       </c>
@@ -7408,7 +7423,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="10">
         <v>45566</v>
       </c>
@@ -7437,7 +7452,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="10">
         <v>45597</v>
       </c>
@@ -7466,7 +7481,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="10">
         <v>45627</v>
       </c>
@@ -7495,7 +7510,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="10">
         <v>45658</v>
       </c>
@@ -7524,7 +7539,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="10">
         <v>45689</v>
       </c>
@@ -7553,7 +7568,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="10">
         <v>45717</v>
       </c>
@@ -7582,7 +7597,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="10">
         <v>45748</v>
       </c>
@@ -7611,7 +7626,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="10">
         <v>45778</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="10">
         <v>45809</v>
       </c>
@@ -7669,7 +7684,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="10">
         <v>45839</v>
       </c>
@@ -7698,7 +7713,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="10">
         <v>45870</v>
       </c>
@@ -7727,7 +7742,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="10">
         <v>45901</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="10">
         <v>45931</v>
       </c>
@@ -7785,7 +7800,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" s="10">
         <v>45962</v>
       </c>
@@ -7814,7 +7829,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="10">
         <v>45992</v>
       </c>
@@ -7843,7 +7858,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="10">
         <v>46023</v>
       </c>
@@ -7855,6 +7870,32 @@
       </c>
       <c r="D114" s="11" t="s">
         <v>12</v>
+      </c>
+      <c r="E114" s="12">
+        <v>59.6</v>
+      </c>
+      <c r="F114" s="13">
+        <v>65.8</v>
+      </c>
+      <c r="G114" s="13">
+        <v>64.8</v>
+      </c>
+      <c r="H114" s="13">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="I114" s="13">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="10">
+        <v>46054</v>
+      </c>
+      <c r="B115" s="10">
+        <v>45719</v>
+      </c>
+      <c r="C115" s="11">
+        <v>0.45833333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -7872,12 +7913,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7893,7 +7934,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -7918,7 +7959,7 @@
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="14"/>
   </cols>
